--- a/otmm_decimal/result_colab/result_existing_5195_1.0_6_59_ColabFree/b_5195_1.0_6_59.xlsx
+++ b/otmm_decimal/result_colab/result_existing_5195_1.0_6_59_ColabFree/b_5195_1.0_6_59.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_existing_5195_1.0_6_59_ColabFree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C05DEC-58B3-4603-88D9-6CD64B856A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BE6A84-689F-43F6-9BA6-2C3D4E5164BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b_5195_1.0_6_59" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>6dGul</t>
   </si>
@@ -197,12 +207,16 @@
   </si>
   <si>
     <t>Xylf</t>
+  </si>
+  <si>
+    <t>Neu5Gc</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,7 +855,12 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1156,11 +1175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BH15" sqref="BH15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2597,7 +2616,7 @@
         <v>52</v>
       </c>
       <c r="BC9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BD9" t="s">
         <v>54</v>
@@ -4064,8 +4083,8 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B10:BH15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>0.3</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/otmm_decimal/result_colab/result_existing_5195_1.0_6_59_ColabFree/b_5195_1.0_6_59.xlsx
+++ b/otmm_decimal/result_colab/result_existing_5195_1.0_6_59_ColabFree/b_5195_1.0_6_59.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_existing_5195_1.0_6_59_ColabFree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BE6A84-689F-43F6-9BA6-2C3D4E5164BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BEC223-E4C7-4962-9FBF-CA70FC4B18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,11 +803,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,12 +858,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1178,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3794,7 +3792,7 @@
         <f t="shared" si="2"/>
         <v>2.1676537457494753E-44</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" s="2">
         <f t="shared" si="2"/>
         <v>5.2795767744902083E-3</v>
       </c>
@@ -4083,7 +4081,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B10:BH15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
